--- a/src/test/resources/Autex/autex-generated - 1.xlsx
+++ b/src/test/resources/Autex/autex-generated - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Sources\Autex Webshop Content Manager\src\test\resources\Autex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF802BB6-BDA3-46C6-96E4-E17C2E5814D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ACE62B-47D6-4D76-B1AC-3995D6C8E82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Cikkszám</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A3" sqref="A3:XFD677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +458,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/Autex/autex-generated - 1.xlsx
+++ b/src/test/resources/Autex/autex-generated - 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project Sources\Autex Webshop Content Manager\src\test\resources\Autex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ACE62B-47D6-4D76-B1AC-3995D6C8E82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F41B07-3AF3-4AE7-9109-5619F8E8E148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12096" yWindow="-12708" windowWidth="20376" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org.autex.supplier.AutexSupplie" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cikkszám</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Lánc 04 B  egyenes    szem   Vision</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD677"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,11 +452,11 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
